--- a/流程分析.xlsx
+++ b/流程分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="11570"/>
+    <workbookView windowWidth="24930" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="流程分析" sheetId="1" r:id="rId1"/>
@@ -1500,8 +1500,8 @@
   <sheetPr/>
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -2328,8 +2328,8 @@
   <sheetPr/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>

--- a/流程分析.xlsx
+++ b/流程分析.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12210" activeTab="1"/>
+    <workbookView windowWidth="24930" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="流程分析" sheetId="1" r:id="rId1"/>
     <sheet name="工具特点" sheetId="2" r:id="rId2"/>
+    <sheet name="量化交易流程" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="161">
   <si>
     <t>需求</t>
   </si>
@@ -86,6 +87,15 @@
     <t>数据输出</t>
   </si>
   <si>
+    <t>量化交易流程</t>
+  </si>
+  <si>
+    <t>工具实现</t>
+  </si>
+  <si>
+    <t>工具列表</t>
+  </si>
+  <si>
     <t>MLOps的工作流程</t>
   </si>
   <si>
@@ -95,6 +105,18 @@
     <t>VSCode and Jupyter</t>
   </si>
   <si>
+    <t>数据管理</t>
+  </si>
+  <si>
+    <t>数据分析和管理</t>
+  </si>
+  <si>
+    <t>MLReef</t>
+  </si>
+  <si>
+    <t>qlib</t>
+  </si>
+  <si>
     <t>全流程活动</t>
   </si>
   <si>
@@ -104,22 +126,28 @@
     <t>VSCode remote debugger</t>
   </si>
   <si>
+    <t>数据打标</t>
+  </si>
+  <si>
+    <t>Label Studio</t>
+  </si>
+  <si>
     <t>代码管理</t>
   </si>
   <si>
     <t>Git</t>
   </si>
   <si>
+    <t>数据版本控制</t>
+  </si>
+  <si>
     <t>数据准备</t>
   </si>
   <si>
-    <t>数据打标</t>
-  </si>
-  <si>
-    <t>Label Studio</t>
-  </si>
-  <si>
-    <t>数据管理</t>
+    <t>数据处理及可视化</t>
+  </si>
+  <si>
+    <t>MLflow</t>
   </si>
   <si>
     <t>DVC</t>
@@ -128,27 +156,45 @@
     <t>特征工程</t>
   </si>
   <si>
+    <t>NNI</t>
+  </si>
+  <si>
     <t>元数据管理</t>
   </si>
   <si>
-    <t>MLflow</t>
+    <t>模型管理</t>
+  </si>
+  <si>
+    <t>模型训练</t>
+  </si>
+  <si>
+    <t>Neu.ro</t>
   </si>
   <si>
     <t>模型开发</t>
   </si>
   <si>
-    <t>模型管理</t>
-  </si>
-  <si>
     <t>超参数优化</t>
   </si>
   <si>
-    <t>NNI</t>
+    <t>dotDate</t>
+  </si>
+  <si>
+    <t>模型优化</t>
+  </si>
+  <si>
+    <t>Prometheus + Grafana</t>
   </si>
   <si>
     <t>实验跟踪</t>
   </si>
   <si>
+    <t>模型可扩展性</t>
+  </si>
+  <si>
+    <t>tensorboard</t>
+  </si>
+  <si>
     <t>测试</t>
   </si>
   <si>
@@ -164,10 +210,19 @@
     <t>Seldon Core</t>
   </si>
   <si>
+    <t>框架和主流函数库</t>
+  </si>
+  <si>
+    <t>pytorch</t>
+  </si>
+  <si>
+    <t>conda</t>
+  </si>
+  <si>
     <t>分布式训练</t>
   </si>
   <si>
-    <t>Neu.ro</t>
+    <t>持续部署</t>
   </si>
   <si>
     <t>模型监控</t>
@@ -176,9 +231,6 @@
     <t>监测</t>
   </si>
   <si>
-    <t>Prometheus + Grafana</t>
-  </si>
-  <si>
     <t>理解</t>
   </si>
   <si>
@@ -194,13 +246,19 @@
     <t>访问控制编排</t>
   </si>
   <si>
+    <t>环境管理</t>
+  </si>
+  <si>
+    <t>资源分配</t>
+  </si>
+  <si>
+    <t>全流程工具</t>
+  </si>
+  <si>
     <t>工具</t>
   </si>
   <si>
-    <t>数据分析和管理</t>
-  </si>
-  <si>
-    <t>MLReef</t>
+    <t>数据流</t>
   </si>
   <si>
     <t>databricks</t>
@@ -209,15 +267,9 @@
     <t>Micorsoft Azure</t>
   </si>
   <si>
-    <t>数据流</t>
-  </si>
-  <si>
     <t>google cloud</t>
   </si>
   <si>
-    <t>数据版本控制</t>
-  </si>
-  <si>
     <t>dataiku</t>
   </si>
   <si>
@@ -248,27 +300,15 @@
     <t>H2O</t>
   </si>
   <si>
-    <t>数据处理及可视化</t>
-  </si>
-  <si>
     <t>mlflow</t>
   </si>
   <si>
-    <t>dotDate</t>
-  </si>
-  <si>
     <t>FEAST</t>
   </si>
   <si>
-    <t>模型训练</t>
-  </si>
-  <si>
     <t>模型追踪</t>
   </si>
   <si>
-    <t>模型优化</t>
-  </si>
-  <si>
     <t>DataRobot</t>
   </si>
   <si>
@@ -284,24 +324,9 @@
     <t>模型评估</t>
   </si>
   <si>
-    <t>tensorboard</t>
-  </si>
-  <si>
-    <t>模型可扩展性</t>
-  </si>
-  <si>
-    <t>框架和主流函数库</t>
-  </si>
-  <si>
-    <t>pytorch</t>
-  </si>
-  <si>
     <t>xgboost</t>
   </si>
   <si>
-    <t>持续部署</t>
-  </si>
-  <si>
     <t>数据流管理</t>
   </si>
   <si>
@@ -336,15 +361,6 @@
   </si>
   <si>
     <t>ORACLE</t>
-  </si>
-  <si>
-    <t>环境管理</t>
-  </si>
-  <si>
-    <t>conda</t>
-  </si>
-  <si>
-    <t>资源分配</t>
   </si>
   <si>
     <t>缩放</t>
@@ -486,6 +502,30 @@
   <si>
     <t>模型有效性</t>
   </si>
+  <si>
+    <t>流程细则</t>
+  </si>
+  <si>
+    <t>模型选择</t>
+  </si>
+  <si>
+    <t>NLP模型</t>
+  </si>
+  <si>
+    <t>Astock</t>
+  </si>
+  <si>
+    <t>结构化数据模型</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>LightGBM</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
 </sst>
 </file>
 
@@ -506,6 +546,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -516,13 +563,6 @@
       <color rgb="FF2A2B2E"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1154,24 +1194,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1498,10 +1544,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1514,151 +1560,153 @@
     <col min="8" max="8" width="9.54545454545454" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="11" max="11" width="11.8181818181818" customWidth="1"/>
+    <col min="12" max="12" width="18.5454545454545" customWidth="1"/>
+    <col min="13" max="13" width="23" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="5" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="G4" s="5" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="5" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="I6" s="5" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="I6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="G7" s="5" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="G7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5" t="s">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="5" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="J8" s="5" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="J8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="14.75" spans="2:9">
+    <row r="10" ht="14.75" spans="2:15">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -1683,621 +1731,818 @@
       <c r="I10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" ht="14.75" spans="1:4">
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" ht="14.75" spans="1:15">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="K11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="2"/>
       <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="9"/>
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="7"/>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="O15" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="7" t="s">
+      <c r="K17" s="1"/>
+      <c r="L17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="9"/>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="9"/>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" t="s">
+        <v>57</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="9"/>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="7"/>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="7"/>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="7"/>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="7" t="s">
-        <v>46</v>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" t="s">
+        <v>64</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="9"/>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="7" t="s">
-        <v>51</v>
+      <c r="K22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" t="s">
+        <v>59</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" t="s">
+        <v>70</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="9"/>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" t="s">
+        <v>73</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="9"/>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="7"/>
+      <c r="K25" s="1"/>
+      <c r="L25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="9"/>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="7"/>
+      <c r="K26" s="1"/>
+      <c r="L26" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="9"/>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="3:5">
-      <c r="C30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="K27" s="1"/>
+      <c r="L27" t="s">
+        <v>76</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="11:13">
+      <c r="K28" s="1"/>
+      <c r="L28" t="s">
+        <v>77</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="11:13">
+      <c r="K29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L29" t="s">
+        <v>38</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13">
+      <c r="C30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="K30" s="1"/>
+      <c r="L30" t="s">
+        <v>80</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="5" t="s">
-        <v>34</v>
+      <c r="A31" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="5"/>
+      <c r="A32" s="2"/>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="5"/>
+      <c r="A33" s="2"/>
       <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2"/>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2"/>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2"/>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2"/>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2"/>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2"/>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2"/>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2"/>
+      <c r="B42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2"/>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2"/>
+      <c r="B44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2"/>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2"/>
+      <c r="B46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2"/>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2"/>
+      <c r="B48" t="s">
         <v>64</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C48" t="s">
         <v>65</v>
       </c>
-      <c r="E33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="5"/>
-      <c r="B34" t="s">
+      <c r="D48" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2"/>
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2"/>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2"/>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2"/>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" t="s">
+        <v>106</v>
+      </c>
+      <c r="E53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2"/>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2"/>
+      <c r="B55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2"/>
+      <c r="B57" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" t="s">
         <v>66</v>
       </c>
-      <c r="C34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="5"/>
-      <c r="B35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="5"/>
-      <c r="B36" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="5"/>
-      <c r="B37" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" t="s">
-        <v>75</v>
-      </c>
-      <c r="E38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="5"/>
-      <c r="B39" t="s">
+      <c r="D57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2"/>
+      <c r="B58" t="s">
         <v>77</v>
       </c>
-      <c r="C39" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="5"/>
-      <c r="B40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="5"/>
-      <c r="B41" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" t="s">
-        <v>78</v>
-      </c>
-      <c r="E41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="5"/>
-      <c r="B42" t="s">
+      <c r="C58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58" t="s">
         <v>82</v>
       </c>
-      <c r="C42" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="5"/>
-      <c r="B43" t="s">
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="2"/>
+      <c r="B59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" t="s">
         <v>83</v>
       </c>
-      <c r="C43" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="5"/>
-      <c r="B44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" t="s">
-        <v>65</v>
-      </c>
-      <c r="E44" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="5"/>
-      <c r="B45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" t="s">
-        <v>78</v>
-      </c>
-      <c r="E45" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="5"/>
-      <c r="B46" t="s">
+      <c r="D59" t="s">
+        <v>116</v>
+      </c>
+      <c r="E59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2"/>
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" t="s">
         <v>88</v>
       </c>
-      <c r="C46" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="5"/>
-      <c r="B47" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="5"/>
-      <c r="B48" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" t="s">
-        <v>93</v>
-      </c>
-      <c r="E48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" t="s">
-        <v>67</v>
-      </c>
-      <c r="E49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="5"/>
-      <c r="B50" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" t="s">
-        <v>80</v>
-      </c>
-      <c r="E50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="5"/>
-      <c r="B51" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" t="s">
-        <v>98</v>
-      </c>
-      <c r="E51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="5"/>
-      <c r="B52" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" t="s">
-        <v>98</v>
-      </c>
-      <c r="E52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="5"/>
-      <c r="B53" t="s">
-        <v>100</v>
-      </c>
-      <c r="C53" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" t="s">
-        <v>98</v>
-      </c>
-      <c r="E53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="5"/>
-      <c r="B54" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" t="s">
-        <v>86</v>
-      </c>
-      <c r="E54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="5"/>
-      <c r="B55" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" t="s">
-        <v>103</v>
-      </c>
-      <c r="E55" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B56" t="s">
-        <v>105</v>
-      </c>
-      <c r="C56" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" t="s">
-        <v>106</v>
-      </c>
-      <c r="E56" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="5"/>
-      <c r="B57" t="s">
-        <v>107</v>
-      </c>
-      <c r="C57" t="s">
-        <v>108</v>
-      </c>
-      <c r="D57" t="s">
-        <v>61</v>
-      </c>
-      <c r="E57" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="5"/>
-      <c r="B58" t="s">
-        <v>109</v>
-      </c>
-      <c r="C58" t="s">
-        <v>65</v>
-      </c>
-      <c r="D58" t="s">
-        <v>61</v>
-      </c>
-      <c r="E58" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="5"/>
-      <c r="B59" t="s">
-        <v>110</v>
-      </c>
-      <c r="C59" t="s">
-        <v>65</v>
-      </c>
-      <c r="D59" t="s">
-        <v>111</v>
-      </c>
-      <c r="E59" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="5"/>
-      <c r="B60" t="s">
-        <v>112</v>
-      </c>
-      <c r="C60" t="s">
-        <v>71</v>
-      </c>
       <c r="D60" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E60" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="23">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="A2:E2"/>
@@ -2317,6 +2562,10 @@
     <mergeCell ref="A38:A48"/>
     <mergeCell ref="A49:A55"/>
     <mergeCell ref="A56:A60"/>
+    <mergeCell ref="K11:K15"/>
+    <mergeCell ref="K16:K21"/>
+    <mergeCell ref="K22:K28"/>
+    <mergeCell ref="K29:K30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2328,8 +2577,8 @@
   <sheetPr/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -2342,568 +2591,568 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" ht="17" spans="1:5">
       <c r="A8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" ht="17" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4" t="s">
-        <v>117</v>
+      <c r="A9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="10" ht="17" spans="1:6">
       <c r="A10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" ht="17" spans="1:6">
       <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" ht="17" spans="1:6">
       <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" ht="17" spans="1:6">
       <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" ht="17" spans="1:6">
-      <c r="A14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14" s="4"/>
+      <c r="A14" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" ht="17" spans="1:6">
-      <c r="A15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15" s="4"/>
+      <c r="A15" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" ht="17" spans="1:6">
       <c r="A16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" ht="17.5" spans="1:6">
       <c r="A17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F17" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" ht="17" spans="1:6">
       <c r="A18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" ht="17" spans="1:6">
       <c r="A19" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" ht="17" spans="6:6">
-      <c r="F20" s="4"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="5" t="s">
-        <v>34</v>
+      <c r="A22" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>63</v>
+        <v>30</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="5"/>
+      <c r="A23" s="2"/>
       <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>63</v>
+        <v>36</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="5"/>
+      <c r="A24" s="2"/>
       <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2"/>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2"/>
+      <c r="B26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2"/>
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2"/>
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2"/>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2"/>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2"/>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2"/>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2"/>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2"/>
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2"/>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2"/>
+      <c r="B37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2"/>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2"/>
+      <c r="B39" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="5"/>
-      <c r="B25" t="s">
+      <c r="C39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2"/>
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2"/>
+      <c r="B42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2"/>
+      <c r="B43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2"/>
+      <c r="B44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2"/>
+      <c r="B45" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2"/>
+      <c r="B46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2"/>
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" t="s">
         <v>66</v>
       </c>
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="5"/>
-      <c r="B26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="5"/>
-      <c r="B27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="5"/>
-      <c r="B28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="5"/>
-      <c r="B30" t="s">
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2"/>
+      <c r="B49" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="5"/>
-      <c r="B31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="5"/>
-      <c r="B32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="5"/>
-      <c r="B33" t="s">
+      <c r="C49" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="5"/>
-      <c r="B34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="5"/>
-      <c r="B35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="5"/>
-      <c r="B36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="5"/>
-      <c r="B37" t="s">
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2"/>
+      <c r="B50" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2"/>
+      <c r="B51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" t="s">
         <v>88</v>
-      </c>
-      <c r="C37" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="5"/>
-      <c r="B38" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="5"/>
-      <c r="B39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="5"/>
-      <c r="B41" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="5"/>
-      <c r="B42" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="5"/>
-      <c r="B43" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="5"/>
-      <c r="B44" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="5"/>
-      <c r="B45" t="s">
-        <v>147</v>
-      </c>
-      <c r="C45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D45" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="5"/>
-      <c r="B46" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" t="s">
-        <v>103</v>
-      </c>
-      <c r="D46" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="5"/>
-      <c r="B48" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="5"/>
-      <c r="B49" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="5"/>
-      <c r="B50" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="5"/>
-      <c r="B51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C51" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2941,4 +3190,285 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5454545454545" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.72727272727273" style="1"/>
+    <col min="5" max="5" width="23" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.2727272727273" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.54545454545455" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.54545454545454" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.54545454545455" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="A20:A21"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/流程分析.xlsx
+++ b/流程分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12210" activeTab="2"/>
+    <workbookView windowWidth="24930" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="流程分析" sheetId="1" r:id="rId1"/>
@@ -1194,12 +1194,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1546,8 +1543,8 @@
   <sheetPr/>
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1564,145 +1561,143 @@
     <col min="13" max="13" width="23" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="G4" s="2" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="2" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="I6" s="2" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="I6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="G7" s="2" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="G7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="2" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="J8" s="2" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="J8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1751,8 +1746,8 @@
       <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="K11" s="2" t="s">
+      <c r="D11" s="7"/>
+      <c r="K11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L11" t="s">
@@ -1766,7 +1761,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B12" t="s">
@@ -1775,7 +1770,7 @@
       <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="2"/>
+      <c r="K12" s="1"/>
       <c r="L12" t="s">
         <v>36</v>
       </c>
@@ -1787,26 +1782,26 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="2"/>
+      <c r="A13" s="1"/>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="K13" s="1"/>
       <c r="L13" t="s">
         <v>40</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="O13" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B14" t="s">
@@ -1815,41 +1810,41 @@
       <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="2"/>
+      <c r="K14" s="1"/>
       <c r="L14" t="s">
         <v>42</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="9"/>
+      <c r="A15" s="8"/>
       <c r="B15" t="s">
         <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="2"/>
+      <c r="K15" s="1"/>
       <c r="L15" t="s">
         <v>45</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B16" t="s">
@@ -1867,12 +1862,12 @@
       <c r="M16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B17" t="s">
@@ -1881,7 +1876,7 @@
       <c r="C17" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K17" s="1"/>
@@ -1896,7 +1891,7 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="9"/>
+      <c r="A18" s="8"/>
       <c r="B18" t="s">
         <v>52</v>
       </c>
@@ -1915,7 +1910,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="9"/>
+      <c r="A19" s="8"/>
       <c r="B19" t="s">
         <v>56</v>
       </c>
@@ -1934,14 +1929,14 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="9"/>
+      <c r="A20" s="8"/>
       <c r="B20" t="s">
         <v>59</v>
       </c>
       <c r="C20" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K20" s="1"/>
@@ -1956,7 +1951,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B21" t="s">
@@ -1977,7 +1972,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="9"/>
+      <c r="A22" s="8"/>
       <c r="B22" t="s">
         <v>67</v>
       </c>
@@ -1998,7 +1993,7 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>69</v>
       </c>
       <c r="B23" t="s">
@@ -2016,7 +2011,7 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="9"/>
+      <c r="A24" s="8"/>
       <c r="B24" t="s">
         <v>71</v>
       </c>
@@ -2032,7 +2027,7 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="9"/>
+      <c r="A25" s="8"/>
       <c r="B25" t="s">
         <v>73</v>
       </c>
@@ -2048,7 +2043,7 @@
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="9"/>
+      <c r="A26" s="8"/>
       <c r="B26" t="s">
         <v>74</v>
       </c>
@@ -2064,7 +2059,7 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="9"/>
+      <c r="A27" s="8"/>
       <c r="B27" t="s">
         <v>75</v>
       </c>
@@ -2100,11 +2095,11 @@
       </c>
     </row>
     <row r="30" spans="3:13">
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" t="s">
         <v>80</v>
@@ -2114,7 +2109,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
@@ -2131,7 +2126,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="2"/>
+      <c r="A32" s="1"/>
       <c r="B32" t="s">
         <v>36</v>
       </c>
@@ -2143,7 +2138,7 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="2"/>
+      <c r="A33" s="1"/>
       <c r="B33" t="s">
         <v>80</v>
       </c>
@@ -2155,7 +2150,7 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="2"/>
+      <c r="A34" s="1"/>
       <c r="B34" t="s">
         <v>40</v>
       </c>
@@ -2170,7 +2165,7 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="2"/>
+      <c r="A35" s="1"/>
       <c r="B35" t="s">
         <v>85</v>
       </c>
@@ -2182,7 +2177,7 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="2"/>
+      <c r="A36" s="1"/>
       <c r="B36" t="s">
         <v>87</v>
       </c>
@@ -2194,7 +2189,7 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="2"/>
+      <c r="A37" s="1"/>
       <c r="B37" t="s">
         <v>89</v>
       </c>
@@ -2203,7 +2198,7 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B38" t="s">
@@ -2220,7 +2215,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="2"/>
+      <c r="A39" s="1"/>
       <c r="B39" t="s">
         <v>42</v>
       </c>
@@ -2235,7 +2230,7 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="2"/>
+      <c r="A40" s="1"/>
       <c r="B40" t="s">
         <v>45</v>
       </c>
@@ -2250,7 +2245,7 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="2"/>
+      <c r="A41" s="1"/>
       <c r="B41" t="s">
         <v>49</v>
       </c>
@@ -2265,7 +2260,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="2"/>
+      <c r="A42" s="1"/>
       <c r="B42" t="s">
         <v>96</v>
       </c>
@@ -2280,7 +2275,7 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="2"/>
+      <c r="A43" s="1"/>
       <c r="B43" t="s">
         <v>54</v>
       </c>
@@ -2295,7 +2290,7 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="2"/>
+      <c r="A44" s="1"/>
       <c r="B44" t="s">
         <v>100</v>
       </c>
@@ -2310,7 +2305,7 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="2"/>
+      <c r="A45" s="1"/>
       <c r="B45" t="s">
         <v>48</v>
       </c>
@@ -2325,7 +2320,7 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="2"/>
+      <c r="A46" s="1"/>
       <c r="B46" t="s">
         <v>101</v>
       </c>
@@ -2337,7 +2332,7 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="2"/>
+      <c r="A47" s="1"/>
       <c r="B47" t="s">
         <v>57</v>
       </c>
@@ -2349,7 +2344,7 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="2"/>
+      <c r="A48" s="1"/>
       <c r="B48" t="s">
         <v>64</v>
       </c>
@@ -2364,7 +2359,7 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B49" t="s">
@@ -2381,7 +2376,7 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="2"/>
+      <c r="A50" s="1"/>
       <c r="B50" t="s">
         <v>104</v>
       </c>
@@ -2396,7 +2391,7 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="2"/>
+      <c r="A51" s="1"/>
       <c r="B51" t="s">
         <v>105</v>
       </c>
@@ -2411,7 +2406,7 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="2"/>
+      <c r="A52" s="1"/>
       <c r="B52" t="s">
         <v>107</v>
       </c>
@@ -2426,7 +2421,7 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="2"/>
+      <c r="A53" s="1"/>
       <c r="B53" t="s">
         <v>108</v>
       </c>
@@ -2441,7 +2436,7 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="2"/>
+      <c r="A54" s="1"/>
       <c r="B54" t="s">
         <v>109</v>
       </c>
@@ -2453,7 +2448,7 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="2"/>
+      <c r="A55" s="1"/>
       <c r="B55" t="s">
         <v>110</v>
       </c>
@@ -2465,7 +2460,7 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B56" t="s">
@@ -2482,7 +2477,7 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="2"/>
+      <c r="A57" s="1"/>
       <c r="B57" t="s">
         <v>76</v>
       </c>
@@ -2497,7 +2492,7 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="2"/>
+      <c r="A58" s="1"/>
       <c r="B58" t="s">
         <v>77</v>
       </c>
@@ -2512,7 +2507,7 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="2"/>
+      <c r="A59" s="1"/>
       <c r="B59" t="s">
         <v>115</v>
       </c>
@@ -2527,7 +2522,7 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="2"/>
+      <c r="A60" s="1"/>
       <c r="B60" t="s">
         <v>117</v>
       </c>
@@ -2577,8 +2572,8 @@
   <sheetPr/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:B49"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -2591,89 +2586,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" ht="17" spans="1:5">
       <c r="A8" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
       <c r="E8" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="9" ht="17" spans="1:5">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="7" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2681,130 +2676,130 @@
       <c r="A10" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="7" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" ht="17" spans="1:6">
       <c r="A11" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" ht="17" spans="1:6">
       <c r="A12" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" ht="17" spans="1:6">
       <c r="A13" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="7" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" ht="17" spans="1:6">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="7" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" ht="17" spans="1:6">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="7" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" ht="17" spans="1:6">
       <c r="A16" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" ht="17.5" spans="1:6">
       <c r="A17" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="7" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" ht="17" spans="1:6">
       <c r="A18" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" ht="17" spans="1:6">
       <c r="A19" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="7" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" ht="17" spans="6:6">
-      <c r="F20" s="7"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
@@ -2818,13 +2813,13 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D22" t="s">
@@ -2832,11 +2827,11 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2"/>
+      <c r="A23" s="1"/>
       <c r="B23" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D23" t="s">
@@ -2844,11 +2839,11 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="2"/>
+      <c r="A24" s="1"/>
       <c r="B24" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D24" t="s">
@@ -2856,7 +2851,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2"/>
+      <c r="A25" s="1"/>
       <c r="B25" t="s">
         <v>40</v>
       </c>
@@ -2868,7 +2863,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="2"/>
+      <c r="A26" s="1"/>
       <c r="B26" t="s">
         <v>85</v>
       </c>
@@ -2880,7 +2875,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2"/>
+      <c r="A27" s="1"/>
       <c r="B27" t="s">
         <v>87</v>
       </c>
@@ -2892,7 +2887,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="2"/>
+      <c r="A28" s="1"/>
       <c r="B28" t="s">
         <v>89</v>
       </c>
@@ -2904,13 +2899,13 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D29" t="s">
@@ -2918,11 +2913,11 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2"/>
+      <c r="A30" s="1"/>
       <c r="B30" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D30" t="s">
@@ -2930,7 +2925,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2"/>
+      <c r="A31" s="1"/>
       <c r="B31" t="s">
         <v>45</v>
       </c>
@@ -2942,20 +2937,20 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="2"/>
+      <c r="A32" s="1"/>
       <c r="B32" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="2"/>
+      <c r="A33" s="1"/>
       <c r="B33" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D33" t="s">
@@ -2963,29 +2958,29 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="2"/>
+      <c r="A34" s="1"/>
       <c r="B34" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="2"/>
+      <c r="A35" s="1"/>
       <c r="B35" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="2"/>
+      <c r="A36" s="1"/>
       <c r="B36" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D36" t="s">
@@ -2993,7 +2988,7 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="2"/>
+      <c r="A37" s="1"/>
       <c r="B37" t="s">
         <v>101</v>
       </c>
@@ -3005,7 +3000,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="2"/>
+      <c r="A38" s="1"/>
       <c r="B38" t="s">
         <v>57</v>
       </c>
@@ -3017,7 +3012,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="2"/>
+      <c r="A39" s="1"/>
       <c r="B39" t="s">
         <v>64</v>
       </c>
@@ -3026,7 +3021,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B40" t="s">
@@ -3040,7 +3035,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="2"/>
+      <c r="A41" s="1"/>
       <c r="B41" t="s">
         <v>104</v>
       </c>
@@ -3049,11 +3044,11 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="2"/>
+      <c r="A42" s="1"/>
       <c r="B42" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D42" t="s">
@@ -3061,11 +3056,11 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="2"/>
+      <c r="A43" s="1"/>
       <c r="B43" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D43" t="s">
@@ -3073,11 +3068,11 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="2"/>
+      <c r="A44" s="1"/>
       <c r="B44" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D44" t="s">
@@ -3085,7 +3080,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="2"/>
+      <c r="A45" s="1"/>
       <c r="B45" t="s">
         <v>152</v>
       </c>
@@ -3097,7 +3092,7 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="2"/>
+      <c r="A46" s="1"/>
       <c r="B46" t="s">
         <v>110</v>
       </c>
@@ -3109,7 +3104,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B47" t="s">
@@ -3120,7 +3115,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="2"/>
+      <c r="A48" s="1"/>
       <c r="B48" t="s">
         <v>76</v>
       </c>
@@ -3129,7 +3124,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="2"/>
+      <c r="A49" s="1"/>
       <c r="B49" t="s">
         <v>77</v>
       </c>
@@ -3138,7 +3133,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="2"/>
+      <c r="A50" s="1"/>
       <c r="B50" t="s">
         <v>115</v>
       </c>
@@ -3147,7 +3142,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="2"/>
+      <c r="A51" s="1"/>
       <c r="B51" t="s">
         <v>117</v>
       </c>
@@ -3197,8 +3192,8 @@
   <sheetPr/>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -3232,7 +3227,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3251,8 +3246,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
+    <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
@@ -3263,15 +3257,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="2"/>
+    <row r="4" spans="2:10">
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -3287,27 +3280,25 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2"/>
+    <row r="5" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2"/>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3321,7 +3312,7 @@
       <c r="C7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>50</v>
       </c>
     </row>
